--- a/Sprint.xlsx
+++ b/Sprint.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Capstone\BarclaysCapstoneProject\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
   <si>
     <t>S. No</t>
   </si>
@@ -44,18 +39,6 @@
     <t>Login Page</t>
   </si>
   <si>
-    <t>Design and Implement the login page</t>
-  </si>
-  <si>
-    <t>Bank Manager</t>
-  </si>
-  <si>
-    <t>Customer Bank Account</t>
-  </si>
-  <si>
-    <t>Money Transfer</t>
-  </si>
-  <si>
     <t>Transaction details</t>
   </si>
   <si>
@@ -74,21 +57,6 @@
     <t>Karan, Parinita</t>
   </si>
   <si>
-    <t>Sourabh, Parth</t>
-  </si>
-  <si>
-    <t>Ritul, Arjun</t>
-  </si>
-  <si>
-    <t>Login as Bank Manager and create customer accounts</t>
-  </si>
-  <si>
-    <t>View account details and choose between deposit and withdrawl</t>
-  </si>
-  <si>
-    <t>Provide option to transfer money between accounts</t>
-  </si>
-  <si>
     <t>Show past 5 transaction details</t>
   </si>
   <si>
@@ -99,13 +67,74 @@
   </si>
   <si>
     <t>Design UI</t>
+  </si>
+  <si>
+    <t>Design and Implement the login page which will allow 
+the user to login into the system</t>
+  </si>
+  <si>
+    <t>Progress</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>In Progress</t>
+  </si>
+  <si>
+    <t>User Module</t>
+  </si>
+  <si>
+    <t>Bank Account Module</t>
+  </si>
+  <si>
+    <t>Allow admin to create Bank account with Account Number , Current balance and Customer ID.</t>
+  </si>
+  <si>
+    <t>Ritul, Sourabh, Karan</t>
+  </si>
+  <si>
+    <t>Ritual, Karan</t>
+  </si>
+  <si>
+    <t>Bank Manager Module</t>
+  </si>
+  <si>
+    <t>Allow user to check account details and opt for deposit/credit</t>
+  </si>
+  <si>
+    <t>Allow admin to login as bank manager and fill in various customer details like aadhar, numer, pan number, etc. for account creation</t>
+  </si>
+  <si>
+    <t>Account Info Module</t>
+  </si>
+  <si>
+    <t>Allow to check the trasaction status.</t>
+  </si>
+  <si>
+    <t>Dhirendra, Arjun</t>
+  </si>
+  <si>
+    <t>Plan the DB Schema</t>
+  </si>
+  <si>
+    <t>Create Database to inorder to store the application data</t>
+  </si>
+  <si>
+    <t>Dhirendra, Arjun, Sourabh</t>
+  </si>
+  <si>
+    <t>Anshik, Parth, Rishabh</t>
+  </si>
+  <si>
+    <t>Ritul, Parinita</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,9 +171,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -205,7 +249,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -240,7 +284,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -417,30 +461,32 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="7.6640625" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
-    <col min="3" max="3" width="44.77734375" customWidth="1"/>
+    <col min="3" max="3" width="54.21875" customWidth="1"/>
     <col min="4" max="4" width="17.5546875" customWidth="1"/>
     <col min="5" max="5" width="32.5546875" customWidth="1"/>
+    <col min="6" max="6" width="18.21875" customWidth="1"/>
+    <col min="7" max="7" width="14.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -456,129 +502,204 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="F1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="40.799999999999997" customHeight="1">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="5">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="40.799999999999997" customHeight="1">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="5">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="40.799999999999997" customHeight="1">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="5">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="30.6" customHeight="1">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="30.6" customHeight="1">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="5">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="29.4" customHeight="1">
+      <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="D2">
+      <c r="B7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="5">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="34.200000000000003" customHeight="1">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="5">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="28.2" customHeight="1">
+      <c r="A9" s="5">
+        <v>6</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="5">
+        <v>3</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="27" customHeight="1">
+      <c r="A10" s="5">
+        <v>7</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="C10" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="D10" s="5">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="E10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="30" customHeight="1">
+      <c r="A11" s="5">
+        <v>8</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D11" s="5">
+        <v>1</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="D4">
-        <v>5</v>
-      </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5">
-        <v>3</v>
-      </c>
-      <c r="E5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
